--- a/template_output.xlsx
+++ b/template_output.xlsx
@@ -20,7 +20,7 @@
     <t>こんにちは！</t>
   </si>
   <si>
-    <t>試しに上書き</t>
+    <t>ちちさん</t>
   </si>
 </sst>
 </file>

--- a/template_output.xlsx
+++ b/template_output.xlsx
@@ -7,28 +7,114 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="見積書" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'見積書'!$A$1:$Z$54</definedName>
+  </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
-    <t>こんにちは！</t>
+    <t>御　見　積　書</t>
   </si>
   <si>
-    <t>ちちさん</t>
+    <t>Ｎｏ</t>
+  </si>
+  <si>
+    <t>aaaさん</t>
+  </si>
+  <si>
+    <t>○○○株式会社</t>
+  </si>
+  <si>
+    <t>〒999-9999</t>
+  </si>
+  <si>
+    <t>下記のとおり御見積り申し上げます。</t>
+  </si>
+  <si>
+    <t>○△県○○市□□町99番地</t>
+  </si>
+  <si>
+    <t>○○ビル５Ｆ</t>
+  </si>
+  <si>
+    <t>納品期日</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
+    <t>支払期限</t>
+  </si>
+  <si>
+    <t>FAX</t>
+  </si>
+  <si>
+    <t>見積有効期限</t>
+  </si>
+  <si>
+    <t>担当</t>
+  </si>
+  <si>
+    <t>合計金額（消費税込）</t>
+  </si>
+  <si>
+    <t>品　　名／摘　　要</t>
+  </si>
+  <si>
+    <t>単　　価</t>
+  </si>
+  <si>
+    <t>数　　量</t>
+  </si>
+  <si>
+    <t>金　　額</t>
+  </si>
+  <si>
+    <t>備　　　考</t>
+  </si>
+  <si>
+    <t>商品ＡＡＡ　（ケース）</t>
+  </si>
+  <si>
+    <t>※．計算式部分はシート保護が有効になっています。</t>
+  </si>
+  <si>
+    <t>商品ＢＢＢ</t>
+  </si>
+  <si>
+    <t>変更時のパスワードは、111です。</t>
+  </si>
+  <si>
+    <t>消費税率</t>
+  </si>
+  <si>
+    <t>％</t>
+  </si>
+  <si>
+    <t>小　　　　　計</t>
+  </si>
+  <si>
+    <t>合　　　　　計</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="165" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
+    <numFmt numFmtId="166" formatCode="#,##0_ "/>
+    <numFmt numFmtId="167" formatCode="#,###;\-#,###"/>
+    <numFmt numFmtId="168" formatCode="&quot;¥&quot;#,###;\-&quot;¥&quot;#,###"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -36,10 +122,37 @@
       <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="22"/>
+      <color rgb="FF000000"/>
+      <name val="ＭＳ Ｐゴシック"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -52,16 +165,701 @@
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2DAE4"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="35">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="double">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="94">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="165" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="165" fillId="2" borderId="9" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="12" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="16" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="17" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="166" fillId="2" borderId="18" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="166" fillId="2" borderId="19" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="166" fillId="2" borderId="17" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="167" fillId="2" borderId="18" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="167" fillId="2" borderId="19" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="167" fillId="2" borderId="20" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="21" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="19" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="20" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="22" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="23" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="166" fillId="2" borderId="24" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="166" fillId="2" borderId="25" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="166" fillId="2" borderId="23" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="167" fillId="2" borderId="24" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="167" fillId="2" borderId="25" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="167" fillId="2" borderId="26" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="27" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="25" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="26" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="28" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="15" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="13" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="14" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="168" fillId="2" borderId="27" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="168" fillId="2" borderId="25" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="168" fillId="2" borderId="26" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="27" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="25" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="26" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="168" fillId="2" borderId="29" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="168" fillId="2" borderId="30" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="168" fillId="2" borderId="31" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="29" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="30" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="31" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="32" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="33" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="166" fillId="2" borderId="34" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="166" fillId="2" borderId="30" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="166" fillId="2" borderId="33" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="167" fillId="2" borderId="34" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="167" fillId="2" borderId="30" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="167" fillId="2" borderId="31" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="29" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="30" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="31" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="168" fillId="2" borderId="21" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="168" fillId="2" borderId="19" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="168" fillId="2" borderId="20" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="21" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="19" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="20" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -362,29 +1160,1772 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:AF54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" showGridLines="false" showRowColHeaders="1">
+      <selection activeCell="AB34" sqref="AB34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="3.5" customWidth="true" style="0"/>
+    <col min="2" max="2" width="3.5" customWidth="true" style="0"/>
+    <col min="3" max="3" width="3.5" customWidth="true" style="0"/>
+    <col min="4" max="4" width="3.5" customWidth="true" style="0"/>
+    <col min="5" max="5" width="3.5" customWidth="true" style="0"/>
+    <col min="6" max="6" width="3.5" customWidth="true" style="0"/>
+    <col min="7" max="7" width="3.5" customWidth="true" style="0"/>
+    <col min="8" max="8" width="3.5" customWidth="true" style="0"/>
+    <col min="9" max="9" width="3.5" customWidth="true" style="0"/>
+    <col min="10" max="10" width="3.5" customWidth="true" style="0"/>
+    <col min="11" max="11" width="3.5" customWidth="true" style="0"/>
+    <col min="12" max="12" width="3.5" customWidth="true" style="0"/>
+    <col min="13" max="13" width="3.5" customWidth="true" style="0"/>
+    <col min="14" max="14" width="3.5" customWidth="true" style="0"/>
+    <col min="15" max="15" width="3.5" customWidth="true" style="0"/>
+    <col min="16" max="16" width="3.5" customWidth="true" style="0"/>
+    <col min="17" max="17" width="3.5" customWidth="true" style="0"/>
+    <col min="18" max="18" width="3.5" customWidth="true" style="0"/>
+    <col min="19" max="19" width="3.5" customWidth="true" style="0"/>
+    <col min="20" max="20" width="3.5" customWidth="true" style="0"/>
+    <col min="21" max="21" width="3.5" customWidth="true" style="0"/>
+    <col min="22" max="22" width="3.5" customWidth="true" style="0"/>
+    <col min="23" max="23" width="3.5" customWidth="true" style="0"/>
+    <col min="24" max="24" width="3.5" customWidth="true" style="0"/>
+    <col min="25" max="25" width="3.5" customWidth="true" style="0"/>
+    <col min="26" max="26" width="3.5" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:32">
+      <c r="G1" s="13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="V1" t="s">
         <v>1</v>
       </c>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+    </row>
+    <row r="2" spans="1:32">
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+    </row>
+    <row r="4" spans="1:32">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="17" t="str">
+        <f>TODAY()</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="A6" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="S12" s="10"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="S13" s="10"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="S14" s="10"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="R16" s="2"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="3"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="20"/>
+    </row>
+    <row r="17" spans="1:32" customHeight="1" ht="13.5">
+      <c r="A17" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="23" t="str">
+        <f>O45</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="5"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+    </row>
+    <row r="18" spans="1:32" customHeight="1" ht="14.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="5"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+    </row>
+    <row r="19" spans="1:32" customHeight="1" ht="14.25">
+      <c r="R19" s="6"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="7"/>
+      <c r="AB19" s="20"/>
+      <c r="AC19" s="20"/>
+      <c r="AD19" s="20"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20"/>
+    </row>
+    <row r="20" spans="1:32">
+      <c r="AB20" s="20"/>
+      <c r="AC20" s="20"/>
+      <c r="AD20" s="20"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+    </row>
+    <row r="21" spans="1:32" customHeight="1" ht="27">
+      <c r="A21" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="29"/>
+    </row>
+    <row r="22" spans="1:32" customHeight="1" ht="15.4">
+      <c r="A22" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="33">
+        <v>3000</v>
+      </c>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="35">
+        <v>10</v>
+      </c>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="36" t="str">
+        <f>I22*L22</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="40"/>
+      <c r="W22" s="40"/>
+      <c r="X22" s="40"/>
+      <c r="Y22" s="40"/>
+      <c r="Z22" s="41"/>
+      <c r="AB22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" customHeight="1" ht="15.4">
+      <c r="A23" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="44">
+        <v>500</v>
+      </c>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="46">
+        <v>25</v>
+      </c>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="47" t="str">
+        <f>I23*L23</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="50"/>
+      <c r="U23" s="51"/>
+      <c r="V23" s="51"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="51"/>
+      <c r="Z23" s="52"/>
+      <c r="AB23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" customHeight="1" ht="15.4">
+      <c r="A24" s="42"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="47" t="str">
+        <f>I24*L24</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="49"/>
+      <c r="T24" s="50"/>
+      <c r="U24" s="51"/>
+      <c r="V24" s="51"/>
+      <c r="W24" s="51"/>
+      <c r="X24" s="51"/>
+      <c r="Y24" s="51"/>
+      <c r="Z24" s="52"/>
+    </row>
+    <row r="25" spans="1:32" customHeight="1" ht="15.4">
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="47" t="str">
+        <f>I25*L25</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="50"/>
+      <c r="U25" s="51"/>
+      <c r="V25" s="51"/>
+      <c r="W25" s="51"/>
+      <c r="X25" s="51"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="52"/>
+      <c r="AB25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC25" s="9">
+        <v>8</v>
+      </c>
+      <c r="AD25" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" customHeight="1" ht="15.4">
+      <c r="A26" s="42"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="46"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="47" t="str">
+        <f>I26*L26</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="48"/>
+      <c r="Q26" s="48"/>
+      <c r="R26" s="48"/>
+      <c r="S26" s="49"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="51"/>
+      <c r="V26" s="51"/>
+      <c r="W26" s="51"/>
+      <c r="X26" s="51"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="52"/>
+    </row>
+    <row r="27" spans="1:32" customHeight="1" ht="15.4">
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="45"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="47" t="str">
+        <f>I27*L27</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="51"/>
+      <c r="V27" s="51"/>
+      <c r="W27" s="51"/>
+      <c r="X27" s="51"/>
+      <c r="Y27" s="51"/>
+      <c r="Z27" s="52"/>
+    </row>
+    <row r="28" spans="1:32" customHeight="1" ht="15.4">
+      <c r="A28" s="42"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="47" t="str">
+        <f>I28*L28</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="48"/>
+      <c r="S28" s="49"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="51"/>
+      <c r="V28" s="51"/>
+      <c r="W28" s="51"/>
+      <c r="X28" s="51"/>
+      <c r="Y28" s="51"/>
+      <c r="Z28" s="52"/>
+    </row>
+    <row r="29" spans="1:32" customHeight="1" ht="15.4">
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="47" t="str">
+        <f>I29*L29</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="49"/>
+      <c r="T29" s="50"/>
+      <c r="U29" s="51"/>
+      <c r="V29" s="51"/>
+      <c r="W29" s="51"/>
+      <c r="X29" s="51"/>
+      <c r="Y29" s="51"/>
+      <c r="Z29" s="52"/>
+    </row>
+    <row r="30" spans="1:32" customHeight="1" ht="15.4">
+      <c r="A30" s="42"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="47" t="str">
+        <f>I30*L30</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="49"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="51"/>
+      <c r="V30" s="51"/>
+      <c r="W30" s="51"/>
+      <c r="X30" s="51"/>
+      <c r="Y30" s="51"/>
+      <c r="Z30" s="52"/>
+    </row>
+    <row r="31" spans="1:32" customHeight="1" ht="15.4">
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="45"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="47" t="str">
+        <f>I31*L31</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="49"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="52"/>
+    </row>
+    <row r="32" spans="1:32" customHeight="1" ht="15.4">
+      <c r="A32" s="42"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="45"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="46"/>
+      <c r="N32" s="46"/>
+      <c r="O32" s="47" t="str">
+        <f>I32*L32</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="49"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="52"/>
+    </row>
+    <row r="33" spans="1:32" customHeight="1" ht="15.4">
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="45"/>
+      <c r="K33" s="45"/>
+      <c r="L33" s="46"/>
+      <c r="M33" s="46"/>
+      <c r="N33" s="46"/>
+      <c r="O33" s="47" t="str">
+        <f>I33*L33</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="49"/>
+      <c r="T33" s="50"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="52"/>
+    </row>
+    <row r="34" spans="1:32" customHeight="1" ht="15.4">
+      <c r="A34" s="42"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="45"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="46"/>
+      <c r="M34" s="46"/>
+      <c r="N34" s="46"/>
+      <c r="O34" s="47" t="str">
+        <f>I34*L34</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="51"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="52"/>
+    </row>
+    <row r="35" spans="1:32" customHeight="1" ht="15.4">
+      <c r="A35" s="42"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="45"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="46"/>
+      <c r="M35" s="46"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="47" t="str">
+        <f>I35*L35</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="51"/>
+      <c r="V35" s="51"/>
+      <c r="W35" s="51"/>
+      <c r="X35" s="51"/>
+      <c r="Y35" s="51"/>
+      <c r="Z35" s="52"/>
+    </row>
+    <row r="36" spans="1:32" customHeight="1" ht="15.4">
+      <c r="A36" s="42"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="45"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="47" t="str">
+        <f>I36*L36</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="48"/>
+      <c r="R36" s="48"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="51"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51"/>
+      <c r="Z36" s="52"/>
+    </row>
+    <row r="37" spans="1:32" customHeight="1" ht="15.4">
+      <c r="A37" s="42"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="46"/>
+      <c r="M37" s="46"/>
+      <c r="N37" s="46"/>
+      <c r="O37" s="47" t="str">
+        <f>I37*L37</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="50"/>
+      <c r="U37" s="51"/>
+      <c r="V37" s="51"/>
+      <c r="W37" s="51"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="52"/>
+    </row>
+    <row r="38" spans="1:32" customHeight="1" ht="15.4">
+      <c r="A38" s="42"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="45"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="46"/>
+      <c r="M38" s="46"/>
+      <c r="N38" s="46"/>
+      <c r="O38" s="47" t="str">
+        <f>I38*L38</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="49"/>
+      <c r="T38" s="50"/>
+      <c r="U38" s="51"/>
+      <c r="V38" s="51"/>
+      <c r="W38" s="51"/>
+      <c r="X38" s="51"/>
+      <c r="Y38" s="51"/>
+      <c r="Z38" s="52"/>
+    </row>
+    <row r="39" spans="1:32" customHeight="1" ht="15.4">
+      <c r="A39" s="42"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="45"/>
+      <c r="K39" s="45"/>
+      <c r="L39" s="46"/>
+      <c r="M39" s="46"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="47" t="str">
+        <f>I39*L39</f>
+        <v>0</v>
+      </c>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="49"/>
+      <c r="T39" s="50"/>
+      <c r="U39" s="51"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="51"/>
+      <c r="X39" s="51"/>
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="52"/>
+    </row>
+    <row r="40" spans="1:32" customHeight="1" ht="15.4">
+      <c r="A40" s="42"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="45"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
+      <c r="O40" s="47" t="str">
+        <f>I40*L40</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="48"/>
+      <c r="R40" s="48"/>
+      <c r="S40" s="49"/>
+      <c r="T40" s="50"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="51"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="51"/>
+      <c r="Z40" s="52"/>
+    </row>
+    <row r="41" spans="1:32" customHeight="1" ht="15.4">
+      <c r="A41" s="42"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="45"/>
+      <c r="K41" s="45"/>
+      <c r="L41" s="46"/>
+      <c r="M41" s="46"/>
+      <c r="N41" s="46"/>
+      <c r="O41" s="47" t="str">
+        <f>I41*L41</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="48"/>
+      <c r="R41" s="48"/>
+      <c r="S41" s="49"/>
+      <c r="T41" s="50"/>
+      <c r="U41" s="51"/>
+      <c r="V41" s="51"/>
+      <c r="W41" s="51"/>
+      <c r="X41" s="51"/>
+      <c r="Y41" s="51"/>
+      <c r="Z41" s="52"/>
+    </row>
+    <row r="42" spans="1:32" customHeight="1" ht="15.4">
+      <c r="A42" s="77"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="81"/>
+      <c r="M42" s="81"/>
+      <c r="N42" s="81"/>
+      <c r="O42" s="82"/>
+      <c r="P42" s="83"/>
+      <c r="Q42" s="83"/>
+      <c r="R42" s="83"/>
+      <c r="S42" s="84"/>
+      <c r="T42" s="85"/>
+      <c r="U42" s="86"/>
+      <c r="V42" s="86"/>
+      <c r="W42" s="86"/>
+      <c r="X42" s="86"/>
+      <c r="Y42" s="86"/>
+      <c r="Z42" s="87"/>
+    </row>
+    <row r="43" spans="1:32" customHeight="1" ht="15.4">
+      <c r="A43" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="B43" s="63"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="63"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="64"/>
+      <c r="O43" s="88" t="str">
+        <f>SUM(O22:S42)</f>
+        <v>0</v>
+      </c>
+      <c r="P43" s="89"/>
+      <c r="Q43" s="89"/>
+      <c r="R43" s="89"/>
+      <c r="S43" s="90"/>
+      <c r="T43" s="91"/>
+      <c r="U43" s="92"/>
+      <c r="V43" s="92"/>
+      <c r="W43" s="92"/>
+      <c r="X43" s="92"/>
+      <c r="Y43" s="92"/>
+      <c r="Z43" s="93"/>
+    </row>
+    <row r="44" spans="1:32" customHeight="1" ht="15.4">
+      <c r="A44" s="62" t="str">
+        <f>"消費税（"&amp;AC25&amp;"%）"</f>
+        <v>0</v>
+      </c>
+      <c r="B44" s="63"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="63"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="63"/>
+      <c r="N44" s="64"/>
+      <c r="O44" s="65" t="str">
+        <f>O43*AC25/100</f>
+        <v>0</v>
+      </c>
+      <c r="P44" s="66"/>
+      <c r="Q44" s="66"/>
+      <c r="R44" s="66"/>
+      <c r="S44" s="67"/>
+      <c r="T44" s="68"/>
+      <c r="U44" s="69"/>
+      <c r="V44" s="69"/>
+      <c r="W44" s="69"/>
+      <c r="X44" s="69"/>
+      <c r="Y44" s="69"/>
+      <c r="Z44" s="70"/>
+    </row>
+    <row r="45" spans="1:32" customHeight="1" ht="15.4">
+      <c r="A45" s="62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="63"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="63"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="63"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="71" t="str">
+        <f>O43+O44</f>
+        <v>0</v>
+      </c>
+      <c r="P45" s="72"/>
+      <c r="Q45" s="72"/>
+      <c r="R45" s="72"/>
+      <c r="S45" s="73"/>
+      <c r="T45" s="74"/>
+      <c r="U45" s="75"/>
+      <c r="V45" s="75"/>
+      <c r="W45" s="75"/>
+      <c r="X45" s="75"/>
+      <c r="Y45" s="75"/>
+      <c r="Z45" s="76"/>
+    </row>
+    <row r="46" spans="1:32">
+      <c r="A46" s="53"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="54"/>
+      <c r="R46" s="54"/>
+      <c r="S46" s="54"/>
+      <c r="T46" s="54"/>
+      <c r="U46" s="54"/>
+      <c r="V46" s="54"/>
+      <c r="W46" s="54"/>
+      <c r="X46" s="54"/>
+      <c r="Y46" s="54"/>
+      <c r="Z46" s="55"/>
+    </row>
+    <row r="47" spans="1:32">
+      <c r="A47" s="56"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="57"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="57"/>
+      <c r="N47" s="57"/>
+      <c r="O47" s="57"/>
+      <c r="P47" s="57"/>
+      <c r="Q47" s="57"/>
+      <c r="R47" s="57"/>
+      <c r="S47" s="57"/>
+      <c r="T47" s="57"/>
+      <c r="U47" s="57"/>
+      <c r="V47" s="57"/>
+      <c r="W47" s="57"/>
+      <c r="X47" s="57"/>
+      <c r="Y47" s="57"/>
+      <c r="Z47" s="58"/>
+    </row>
+    <row r="48" spans="1:32">
+      <c r="A48" s="56"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="57"/>
+      <c r="N48" s="57"/>
+      <c r="O48" s="57"/>
+      <c r="P48" s="57"/>
+      <c r="Q48" s="57"/>
+      <c r="R48" s="57"/>
+      <c r="S48" s="57"/>
+      <c r="T48" s="57"/>
+      <c r="U48" s="57"/>
+      <c r="V48" s="57"/>
+      <c r="W48" s="57"/>
+      <c r="X48" s="57"/>
+      <c r="Y48" s="57"/>
+      <c r="Z48" s="58"/>
+    </row>
+    <row r="49" spans="1:32">
+      <c r="A49" s="56"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="57"/>
+      <c r="N49" s="57"/>
+      <c r="O49" s="57"/>
+      <c r="P49" s="57"/>
+      <c r="Q49" s="57"/>
+      <c r="R49" s="57"/>
+      <c r="S49" s="57"/>
+      <c r="T49" s="57"/>
+      <c r="U49" s="57"/>
+      <c r="V49" s="57"/>
+      <c r="W49" s="57"/>
+      <c r="X49" s="57"/>
+      <c r="Y49" s="57"/>
+      <c r="Z49" s="58"/>
+    </row>
+    <row r="50" spans="1:32">
+      <c r="A50" s="56"/>
+      <c r="B50" s="57"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="57"/>
+      <c r="G50" s="57"/>
+      <c r="H50" s="57"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="57"/>
+      <c r="N50" s="57"/>
+      <c r="O50" s="57"/>
+      <c r="P50" s="57"/>
+      <c r="Q50" s="57"/>
+      <c r="R50" s="57"/>
+      <c r="S50" s="57"/>
+      <c r="T50" s="57"/>
+      <c r="U50" s="57"/>
+      <c r="V50" s="57"/>
+      <c r="W50" s="57"/>
+      <c r="X50" s="57"/>
+      <c r="Y50" s="57"/>
+      <c r="Z50" s="58"/>
+    </row>
+    <row r="51" spans="1:32">
+      <c r="A51" s="56"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="57"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="57"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+      <c r="J51" s="57"/>
+      <c r="K51" s="57"/>
+      <c r="L51" s="57"/>
+      <c r="M51" s="57"/>
+      <c r="N51" s="57"/>
+      <c r="O51" s="57"/>
+      <c r="P51" s="57"/>
+      <c r="Q51" s="57"/>
+      <c r="R51" s="57"/>
+      <c r="S51" s="57"/>
+      <c r="T51" s="57"/>
+      <c r="U51" s="57"/>
+      <c r="V51" s="57"/>
+      <c r="W51" s="57"/>
+      <c r="X51" s="57"/>
+      <c r="Y51" s="57"/>
+      <c r="Z51" s="58"/>
+    </row>
+    <row r="52" spans="1:32">
+      <c r="A52" s="56"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
+      <c r="Q52" s="57"/>
+      <c r="R52" s="57"/>
+      <c r="S52" s="57"/>
+      <c r="T52" s="57"/>
+      <c r="U52" s="57"/>
+      <c r="V52" s="57"/>
+      <c r="W52" s="57"/>
+      <c r="X52" s="57"/>
+      <c r="Y52" s="57"/>
+      <c r="Z52" s="58"/>
+    </row>
+    <row r="53" spans="1:32">
+      <c r="A53" s="56"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="57"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="57"/>
+      <c r="F53" s="57"/>
+      <c r="G53" s="57"/>
+      <c r="H53" s="57"/>
+      <c r="I53" s="57"/>
+      <c r="J53" s="57"/>
+      <c r="K53" s="57"/>
+      <c r="L53" s="57"/>
+      <c r="M53" s="57"/>
+      <c r="N53" s="57"/>
+      <c r="O53" s="57"/>
+      <c r="P53" s="57"/>
+      <c r="Q53" s="57"/>
+      <c r="R53" s="57"/>
+      <c r="S53" s="57"/>
+      <c r="T53" s="57"/>
+      <c r="U53" s="57"/>
+      <c r="V53" s="57"/>
+      <c r="W53" s="57"/>
+      <c r="X53" s="57"/>
+      <c r="Y53" s="57"/>
+      <c r="Z53" s="58"/>
+    </row>
+    <row r="54" spans="1:32">
+      <c r="A54" s="59"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
+      <c r="E54" s="60"/>
+      <c r="F54" s="60"/>
+      <c r="G54" s="60"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
+      <c r="J54" s="60"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="60"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="60"/>
+      <c r="P54" s="60"/>
+      <c r="Q54" s="60"/>
+      <c r="R54" s="60"/>
+      <c r="S54" s="60"/>
+      <c r="T54" s="60"/>
+      <c r="U54" s="60"/>
+      <c r="V54" s="60"/>
+      <c r="W54" s="60"/>
+      <c r="X54" s="60"/>
+      <c r="Y54" s="60"/>
+      <c r="Z54" s="61"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <sheetProtection password="CF66" sheet="true" objects="true" scenarios="true" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="A46:Z54"/>
+    <mergeCell ref="A44:N44"/>
+    <mergeCell ref="O44:S44"/>
+    <mergeCell ref="T44:Z44"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="O45:S45"/>
+    <mergeCell ref="T45:Z45"/>
+    <mergeCell ref="A42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="O42:S42"/>
+    <mergeCell ref="T42:Z42"/>
+    <mergeCell ref="A43:N43"/>
+    <mergeCell ref="O43:S43"/>
+    <mergeCell ref="T43:Z43"/>
+    <mergeCell ref="A40:H40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="O40:S40"/>
+    <mergeCell ref="T40:Z40"/>
+    <mergeCell ref="A41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="O41:S41"/>
+    <mergeCell ref="T41:Z41"/>
+    <mergeCell ref="A38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="O38:S38"/>
+    <mergeCell ref="T38:Z38"/>
+    <mergeCell ref="A39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="O39:S39"/>
+    <mergeCell ref="T39:Z39"/>
+    <mergeCell ref="A36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="O36:S36"/>
+    <mergeCell ref="T36:Z36"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="O37:S37"/>
+    <mergeCell ref="T37:Z37"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="O34:S34"/>
+    <mergeCell ref="T34:Z34"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="O35:S35"/>
+    <mergeCell ref="T35:Z35"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="L32:N32"/>
+    <mergeCell ref="O32:S32"/>
+    <mergeCell ref="T32:Z32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="O33:S33"/>
+    <mergeCell ref="T33:Z33"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="O30:S30"/>
+    <mergeCell ref="T30:Z30"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="O31:S31"/>
+    <mergeCell ref="T31:Z31"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="O28:S28"/>
+    <mergeCell ref="T28:Z28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="O29:S29"/>
+    <mergeCell ref="T29:Z29"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="L26:N26"/>
+    <mergeCell ref="O26:S26"/>
+    <mergeCell ref="T26:Z26"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="O27:S27"/>
+    <mergeCell ref="T27:Z27"/>
+    <mergeCell ref="A24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="O24:S24"/>
+    <mergeCell ref="T24:Z24"/>
+    <mergeCell ref="A25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="O25:S25"/>
+    <mergeCell ref="T25:Z25"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="O22:S22"/>
+    <mergeCell ref="T22:Z22"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="O23:S23"/>
+    <mergeCell ref="T23:Z23"/>
+    <mergeCell ref="AB16:AF20"/>
+    <mergeCell ref="A17:G18"/>
+    <mergeCell ref="H17:N18"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="O21:S21"/>
+    <mergeCell ref="T21:Z21"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:Z13"/>
+    <mergeCell ref="F14:K14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:Z14"/>
+    <mergeCell ref="R9:U9"/>
+    <mergeCell ref="R10:Z10"/>
+    <mergeCell ref="R11:Z11"/>
+    <mergeCell ref="F12:K12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:Z12"/>
+    <mergeCell ref="G1:T3"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="U3:Y3"/>
+    <mergeCell ref="S5:Z5"/>
+    <mergeCell ref="A6:K7"/>
+    <mergeCell ref="R8:Z8"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <pageMargins left="0.78740157480315" right="0.39370078740157" top="1.1811023622047" bottom="0.39370078740157" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
